--- a/OnBoard/output/trust/catch/Catch_Trust_51.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_51.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,19 +1093,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eledone moschata</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G18">
-        <v>0.8</v>
+        <v>0.24</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1134,16 +1134,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Galeodea echinophora</t>
+          <t>Hexaplex trunculus</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>GALEECH</t>
+          <t>HEXATRU</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.3</v>
+        <v>0.032</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1172,19 +1175,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Lophius budegassa</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="G20">
-        <v>0.24</v>
+        <v>0.569</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1213,19 +1216,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.032</v>
+        <v>0.012</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1254,19 +1257,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lophius budegassa</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.569</v>
+        <v>0.546</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1295,16 +1298,16 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Pecten jacobaeus</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.012</v>
+        <v>0.057</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1336,16 +1339,16 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.546</v>
+        <v>0.206</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1377,13 +1380,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pecten jacobaeus</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
-        </is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="G25">
+        <v>1.165</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1412,22 +1421,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Antalis inaequicostata</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>DENTINA</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.206</v>
+        <v>0.002</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="27">
@@ -1453,22 +1462,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Aspidosiphon muelleri muelleri</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ASPIMUE</t>
         </is>
       </c>
       <c r="G27">
-        <v>1.165</v>
+        <v>1.147</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>1111</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="28">
@@ -1494,16 +1503,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Astropecten irregularis</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
-        </is>
+          <t>ASTRIRR</t>
+        </is>
+      </c>
+      <c r="G28">
+        <v>0.147</v>
+      </c>
+      <c r="H28">
+        <v>34</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="29">
@@ -1529,19 +1544,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Antalis inaequicostata</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DENTINA</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.002</v>
+        <v>0.054</v>
       </c>
       <c r="H29">
-        <v>11</v>
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="30">
@@ -1567,19 +1585,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Aspidosiphon muelleri muelleri</t>
+          <t>Coralligenous concretions</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ASPIMUE</t>
+          <t>CORACON</t>
         </is>
       </c>
       <c r="G30">
-        <v>1.147</v>
+        <v>0.043</v>
       </c>
       <c r="H30">
-        <v>1111</v>
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="31">
@@ -1605,19 +1626,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Fusinus rostratus</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>FUSIROS</t>
         </is>
       </c>
       <c r="G31">
-        <v>0.147</v>
+        <v>0.013</v>
       </c>
       <c r="H31">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="32">
@@ -1643,19 +1667,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Hiatella arctica</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>HIATARC</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.054</v>
+        <v>0.001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="33">
@@ -1681,19 +1708,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Coralligenous concretions</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CORACON</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.043</v>
+        <v>0.037</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="34">
@@ -1719,19 +1749,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fusinus rostratus</t>
+          <t>Nereididae nd</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FUSIROS</t>
+          <t>NEREIDI</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.013</v>
+        <v>0.001</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="35">
@@ -1757,19 +1790,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hiatella arctica</t>
+          <t>Ocnus planci (=Cucumaria planci)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>HIATARC</t>
+          <t>OCNUPLA</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.001</v>
+        <v>0.19</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="36">
@@ -1795,19 +1831,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Ophiothrix fragilis</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>OPHIFRA</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.037</v>
+        <v>0.021</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="I36">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="37">
@@ -1833,19 +1872,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nereididae nd</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NEREIDI</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.001</v>
+        <v>0.14</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="I37">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="38">
@@ -1871,19 +1913,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ocnus planci (=Cucumaria planci)</t>
+          <t>Porifera nd</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>OCNUPLA</t>
+          <t>PORIFND</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.19</v>
+        <v>0.027</v>
       </c>
       <c r="H38">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I38">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="39">
@@ -1909,19 +1954,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ophiothrix fragilis</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>OPHIFRA</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.021</v>
+        <v>1.156</v>
       </c>
       <c r="H39">
-        <v>33</v>
+        <v>-1</v>
+      </c>
+      <c r="I39">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="40">
@@ -1947,19 +1995,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Thyone fusus</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>THYOFUS</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.14</v>
+        <v>0.002</v>
       </c>
       <c r="H40">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="41">
@@ -1985,19 +2036,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Porifera nd</t>
+          <t>Trachythyone tergestina</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>PORIFND</t>
+          <t>TRACTER</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.027</v>
+        <v>0.019</v>
       </c>
       <c r="H41">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="42">
@@ -2023,19 +2077,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G42">
-        <v>1.156</v>
+        <v>0.518</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="I42">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="43">
@@ -2061,19 +2118,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Thyone fusus</t>
+          <t>Virgularia mirabilis</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>THYOFUS</t>
+          <t>VIRGMIR</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H43">
         <v>1</v>
+      </c>
+      <c r="I43">
+        <v>34.02508771929825</v>
       </c>
     </row>
     <row r="44">
@@ -2099,133 +2159,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Trachythyone tergestina</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>TRACTER</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.019</v>
+        <v>0.105</v>
       </c>
       <c r="H44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Turritella communis</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>TURRCOM</t>
-        </is>
-      </c>
-      <c r="G45">
-        <v>0.518</v>
-      </c>
-      <c r="H45">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Virgularia mirabilis</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>VIRGMIR</t>
-        </is>
-      </c>
-      <c r="G46">
-        <v>0.001</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G47">
-        <v>0.105</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I44">
+        <v>34.02508771929825</v>
       </c>
     </row>
   </sheetData>
